--- a/Pomiar czasu/sklep.hart-metale.xlsx
+++ b/Pomiar czasu/sklep.hart-metale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="12435" windowHeight="6975"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11010" windowHeight="3435"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -341,15 +341,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +382,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,30 +712,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -746,20 +746,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>12</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <f>100/123*F3</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <f>C3*D3</f>
         <v>80</v>
       </c>
@@ -772,20 +772,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>12</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <f t="shared" ref="D4:D7" si="0">100/123*F4</f>
         <v>3.9837398373983741</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <f t="shared" ref="E4:E7" si="1">C4*D4</f>
         <v>47.804878048780488</v>
       </c>
@@ -798,20 +798,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
         <v>20.40650406504065</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
         <v>20.40650406504065</v>
       </c>
@@ -824,20 +824,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>40</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>1.8699186991869916</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <f t="shared" si="1"/>
         <v>74.796747967479661</v>
       </c>
@@ -850,20 +850,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>10</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>10.894308943089431</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>108.9430894308943</v>
       </c>
@@ -876,18 +876,156 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23">
         <f>SUM(E3:E7)</f>
         <v>331.95121951219511</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
         <f>SUM(G3:G7)</f>
         <v>408.29999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>13.6</v>
+      </c>
+      <c r="D10">
+        <f>B10*C10</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D20" si="3">B11*C11</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>14.4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>374.40000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.34</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>0.13</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>0.15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>0.08</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>31.5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>SUM(D10:D20)</f>
+        <v>674.89999999999986</v>
       </c>
     </row>
   </sheetData>
